--- a/api/scripts/ispp-data.xlsx
+++ b/api/scripts/ispp-data.xlsx
@@ -2127,7 +2127,7 @@
       <c r="AF1" s="97"/>
       <c r="AG1" s="97"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="98"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2182,7 +2182,7 @@
       <c r="AF2" s="32"/>
       <c r="AG2" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60" customFormat="1" s="100">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="57" customFormat="1" s="100">
       <c r="A3" s="56">
         <v>1</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="AF3" s="32"/>
       <c r="AG3" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5" customFormat="1" s="100">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="44.25" customFormat="1" s="100">
       <c r="A4" s="56">
         <v>2</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="AF4" s="32"/>
       <c r="AG4" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="127.5" customFormat="1" s="100">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="120.75" customFormat="1" s="100">
       <c r="A5" s="56">
         <v>3</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="AF5" s="32"/>
       <c r="AG5" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="57">
       <c r="A6" s="57">
         <v>4</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="AF6" s="32"/>
       <c r="AG6" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="31.5">
       <c r="A7" s="56">
         <v>5</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="AF7" s="32"/>
       <c r="AG7" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31.5">
       <c r="A8" s="56">
         <v>6</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25">
       <c r="A9" s="56">
         <v>7</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="73.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="69.75">
       <c r="A10" s="57">
         <v>8</v>
       </c>
